--- a/biology/Botanique/Pleioblastus/Pleioblastus.xlsx
+++ b/biology/Botanique/Pleioblastus/Pleioblastus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleioblastus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de l'Asie tempérée (principalement Chine, Japon), qui regroupe environ 30 espèces. Ce genre a été créé en 1925 par le botaniste japonais Takenoshin Nakai[3].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleioblastus est un genre de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire de l'Asie tempérée (principalement Chine, Japon), qui regroupe environ 30 espèces. Ce genre a été créé en 1925 par le botaniste japonais Takenoshin Nakai.  
 Ce sont des bambous espèces traçants, de taille moyenne et basse, aux feuilles persistantes. 
 Ces espèces étaient anciennement classées dans le genre Arundinaria.
 </t>
@@ -513,7 +525,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre Pleioblastus est un nom composé latin formé à partir de deux étymons grecs et de leurs formes latines : πληίος  plêios &gt; pleio « beaucoup » et βλαστός blastos &gt; blastus « bourgeon », en raison des « bourgeons associés aux nœuds » d’après T. Nakai, 
 </t>
@@ -544,9 +558,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 mars 2018)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (25 mars 2018) :
 Pleioblastus altiligulatus S.L.Chen &amp; S.Y.Chen (1983)
 Pleioblastus amarus (Keng) Keng f. (1948)
 Pleioblastus argenteostriatus (Regel) Nakai (1933)
